--- a/小工具設定.xlsx
+++ b/小工具設定.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>分組</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,9 +78,6 @@
     <t>https://docs.google.com/spreadsheets/d/1UpTzarelFH-mY6CbDX42MtlVjXFHwJvvXpF4PWqu4cY/export?format=xlsx&amp;id=1UpTzarelFH-mY6CbDX42MtlVjXFHwJvvXpF4PWqu4cY</t>
   </si>
   <si>
-    <t>http://dev01.control.com:8082/sitenavConfig/mobileSetting/164</t>
-  </si>
-  <si>
     <t>https://docs.google.com/spreadsheets/d/1D5mSfmTQSDFgqHNeN7wDUHa0HO4NARzEbxp7Zt39tJU/export?format=xlsx&amp;id=1UpTzarelFH-mY6CbDX42MtlVjXFHwJvvXpF4PWqu4cY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +115,16 @@
   <si>
     <t>yanting3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dev01.control.com:8082/sitenavConfig/mobileSetting/706</t>
+  </si>
+  <si>
+    <t>http://dev01.control.com:8082</t>
   </si>
 </sst>
 </file>
@@ -528,30 +535,30 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -563,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -599,16 +606,16 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
@@ -616,7 +623,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/小工具設定.xlsx
+++ b/小工具設定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\小工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\新增資料夾\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>分組</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>http://dev01.control.com:8082</t>
+  </si>
+  <si>
+    <t>&lt;-在這邊填入總控位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +577,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -630,8 +634,14 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" t="s">
         <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
